--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N2">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q2">
-        <v>75.53896716143021</v>
+        <v>13.32943499360666</v>
       </c>
       <c r="R2">
-        <v>679.8507044528719</v>
+        <v>119.96491494246</v>
       </c>
       <c r="S2">
-        <v>0.08785012815816592</v>
+        <v>0.02617184105339938</v>
       </c>
       <c r="T2">
-        <v>0.08785012815816592</v>
+        <v>0.02617184105339938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
         <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q3">
-        <v>11.04133201286267</v>
+        <v>2.05607484719</v>
       </c>
       <c r="R3">
-        <v>99.37198811576403</v>
+        <v>18.50467362471</v>
       </c>
       <c r="S3">
-        <v>0.01284082201301414</v>
+        <v>0.004037025134250563</v>
       </c>
       <c r="T3">
-        <v>0.01284082201301414</v>
+        <v>0.004037025134250563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N4">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q4">
-        <v>17.77170526066867</v>
+        <v>1.78623959678</v>
       </c>
       <c r="R4">
-        <v>159.945347346018</v>
+        <v>16.07615637102</v>
       </c>
       <c r="S4">
-        <v>0.02066809546657474</v>
+        <v>0.003507213834092528</v>
       </c>
       <c r="T4">
-        <v>0.02066809546657474</v>
+        <v>0.003507213834092528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N5">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q5">
-        <v>314.5495947783969</v>
+        <v>298.0659575944183</v>
       </c>
       <c r="R5">
-        <v>2830.946353005571</v>
+        <v>2682.593618349764</v>
       </c>
       <c r="S5">
-        <v>0.365814138738856</v>
+        <v>0.5852412251030922</v>
       </c>
       <c r="T5">
-        <v>0.365814138738856</v>
+        <v>0.5852412251030921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
         <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q6">
         <v>45.97688638021268</v>
@@ -818,10 +818,10 @@
         <v>413.7919774219141</v>
       </c>
       <c r="S6">
-        <v>0.05347008984360917</v>
+        <v>0.09027387605328206</v>
       </c>
       <c r="T6">
-        <v>0.05347008984360917</v>
+        <v>0.09027387605328205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N7">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q7">
-        <v>74.00263596824367</v>
+        <v>39.94296953791867</v>
       </c>
       <c r="R7">
-        <v>666.023723714193</v>
+        <v>359.486725841268</v>
       </c>
       <c r="S7">
-        <v>0.08606340936538184</v>
+        <v>0.07842650873413519</v>
       </c>
       <c r="T7">
-        <v>0.08606340936538184</v>
+        <v>0.07842650873413519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N8">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q8">
-        <v>232.3534386911506</v>
+        <v>83.94816410690888</v>
       </c>
       <c r="R8">
-        <v>2091.180948220356</v>
+        <v>755.5334769621799</v>
       </c>
       <c r="S8">
-        <v>0.270221848855653</v>
+        <v>0.1648290425501541</v>
       </c>
       <c r="T8">
-        <v>0.270221848855653</v>
+        <v>0.164829042550154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
         <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q9">
-        <v>33.962490583658</v>
+        <v>12.94906414043667</v>
       </c>
       <c r="R9">
-        <v>305.662415252922</v>
+        <v>116.54157726393</v>
       </c>
       <c r="S9">
-        <v>0.03949761642846863</v>
+        <v>0.02542499728130506</v>
       </c>
       <c r="T9">
-        <v>0.03949761642846863</v>
+        <v>0.02542499728130506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N10">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q10">
-        <v>54.664724497721</v>
+        <v>11.24965423340666</v>
       </c>
       <c r="R10">
-        <v>491.982520479489</v>
+        <v>101.24688810066</v>
       </c>
       <c r="S10">
-        <v>0.06357385113027665</v>
+        <v>0.02208827025628906</v>
       </c>
       <c r="T10">
-        <v>0.06357385113027665</v>
+        <v>0.02208827025628906</v>
       </c>
     </row>
   </sheetData>
